--- a/public/template/Ice_sample_template.xlsx
+++ b/public/template/Ice_sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96AF699D-A2B2-46FB-B92F-E4116AFA6A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9718B51B-06F3-49E2-82D7-BAD4FBE73098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="2304" windowWidth="22752" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with_all_correctdata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Order Received Data and Time</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>SIPL5317</t>
-  </si>
-  <si>
-    <t>Search(T1)</t>
   </si>
   <si>
     <t>Title</t>
@@ -692,7 +689,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1078,7 +1085,7 @@
         <v>45509.0625</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1087,37 +1094,35 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45510.0625</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -1126,30 +1131,28 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="M3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/public/template/Ice_sample_template.xlsx
+++ b/public/template/Ice_sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9718B51B-06F3-49E2-82D7-BAD4FBE73098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96AF699D-A2B2-46FB-B92F-E4116AFA6A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="2304" windowWidth="22752" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with_all_correctdata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Order Received Data and Time</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>SIPL5317</t>
+  </si>
+  <si>
+    <t>Search(T1)</t>
   </si>
   <si>
     <t>Title</t>
@@ -689,17 +692,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1085,7 +1078,7 @@
         <v>45509.0625</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1094,35 +1087,37 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45510.0625</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -1131,28 +1126,30 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
